--- a/app/template/Template_HemeSight.xlsx
+++ b/app/template/Template_HemeSight.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini/Documents/Python/ExPReSS_for_HemeSight/docker/app/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92759C69-FA81-E040-ABB4-BD39A9E7AEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61C7B1B-F118-B04E-AD52-A40040233355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22460" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7501" uniqueCount="2091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7502" uniqueCount="2092">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -11160,6 +11160,10 @@
   </si>
   <si>
     <t>Role</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Reads</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -14139,11 +14143,13 @@
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
-      <c r="J40" s="74" t="s">
+      <c r="J40" s="68" t="s">
+        <v>2091</v>
+      </c>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74" t="s">
         <v>2036</v>
       </c>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
       <c r="O40" s="67" t="s">
